--- a/data/financial_statements/sofp/MTD.xlsx
+++ b/data/financial_statements/sofp/MTD.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -131,9 +248,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -186,12 +300,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -496,144 +607,144 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>122000000</v>
+        <v>122136000</v>
       </c>
       <c r="C2">
-        <v>109000000</v>
+        <v>109449000</v>
       </c>
       <c r="D2">
-        <v>117000000</v>
+        <v>116949000</v>
       </c>
       <c r="E2">
-        <v>99000000</v>
+        <v>98564000</v>
       </c>
       <c r="F2">
-        <v>184000000</v>
+        <v>183672000</v>
       </c>
       <c r="G2">
         <v>142252000</v>
@@ -739,23 +850,23 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>611000000</v>
+        <v>611399000</v>
       </c>
       <c r="C3">
-        <v>627000000</v>
+        <v>626593000</v>
       </c>
       <c r="D3">
-        <v>618000000</v>
+        <v>617880000</v>
       </c>
       <c r="E3">
-        <v>647000000</v>
+        <v>647335000</v>
       </c>
       <c r="F3">
-        <v>603000000</v>
+        <v>603364000</v>
       </c>
       <c r="G3">
         <v>600191000</v>
@@ -861,23 +972,23 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
-        <v>451000000</v>
+        <v>451320000</v>
       </c>
       <c r="C4">
-        <v>463000000</v>
+        <v>463321000</v>
       </c>
       <c r="D4">
-        <v>446000000</v>
+        <v>446490000</v>
       </c>
       <c r="E4">
-        <v>415000000</v>
+        <v>414543000</v>
       </c>
       <c r="F4">
-        <v>381000000</v>
+        <v>381457000</v>
       </c>
       <c r="G4">
         <v>350159000</v>
@@ -983,23 +1094,23 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
-        <v>131000000</v>
+        <v>131047000</v>
       </c>
       <c r="C5">
-        <v>125000000</v>
+        <v>125338000</v>
       </c>
       <c r="D5">
-        <v>129000000</v>
+        <v>128567000</v>
       </c>
       <c r="E5">
-        <v>109000000</v>
+        <v>108916000</v>
       </c>
       <c r="F5">
-        <v>78000000</v>
+        <v>77731000</v>
       </c>
       <c r="G5">
         <v>80009000</v>
@@ -1105,23 +1216,23 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
-        <v>1316000000</v>
+        <v>1315902000</v>
       </c>
       <c r="C6">
-        <v>1325000000</v>
+        <v>1324701000</v>
       </c>
       <c r="D6">
-        <v>1310000000</v>
+        <v>1309886000</v>
       </c>
       <c r="E6">
-        <v>1269000000</v>
+        <v>1269358000</v>
       </c>
       <c r="F6">
-        <v>1246000000</v>
+        <v>1246224000</v>
       </c>
       <c r="G6">
         <v>1172611000</v>
@@ -1227,23 +1338,23 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
-        <v>729000000</v>
+        <v>728602000</v>
       </c>
       <c r="C7">
-        <v>761000000</v>
+        <v>760856000</v>
       </c>
       <c r="D7">
-        <v>787000000</v>
+        <v>787472000</v>
       </c>
       <c r="E7">
-        <v>918000000</v>
+        <v>799365000</v>
       </c>
       <c r="F7">
-        <v>784000000</v>
+        <v>783813000</v>
       </c>
       <c r="G7">
         <v>790512000</v>
@@ -1349,8 +1460,8 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
         <v>16000000</v>
@@ -1366,23 +1477,23 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
-        <v>934000000</v>
+        <v>933524000</v>
       </c>
       <c r="C9">
-        <v>942000000</v>
+        <v>941811000</v>
       </c>
       <c r="D9">
-        <v>955000000</v>
+        <v>955197000</v>
       </c>
       <c r="E9">
-        <v>956000000</v>
+        <v>956072000</v>
       </c>
       <c r="F9">
-        <v>928000000</v>
+        <v>927777000</v>
       </c>
       <c r="G9">
         <v>935905000</v>
@@ -1488,8 +1599,8 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
         <v>34986000</v>
@@ -1610,23 +1721,23 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
-        <v>265000000</v>
+        <v>281446000</v>
       </c>
       <c r="C11">
-        <v>261000000</v>
+        <v>272063000</v>
       </c>
       <c r="D11">
-        <v>260000000</v>
+        <v>264708000</v>
       </c>
       <c r="E11">
-        <v>142000000</v>
+        <v>262507000</v>
       </c>
       <c r="F11">
-        <v>210000000</v>
+        <v>210075000</v>
       </c>
       <c r="G11">
         <v>202636000</v>
@@ -1732,8 +1843,8 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
         <v>1978558000</v>
@@ -1854,23 +1965,23 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
-        <v>3294000000</v>
+        <v>3294460000</v>
       </c>
       <c r="C13">
-        <v>3336000000</v>
+        <v>3336430000</v>
       </c>
       <c r="D13">
-        <v>3356000000</v>
+        <v>3356183000</v>
       </c>
       <c r="E13">
-        <v>3327000000</v>
+        <v>3326798000</v>
       </c>
       <c r="F13">
-        <v>3207000000</v>
+        <v>3207161000</v>
       </c>
       <c r="G13">
         <v>3142904000</v>
@@ -1976,23 +2087,23 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
-        <v>227000000</v>
+        <v>226681000</v>
       </c>
       <c r="C14">
-        <v>268000000</v>
+        <v>267523000</v>
       </c>
       <c r="D14">
-        <v>259000000</v>
+        <v>259352000</v>
       </c>
       <c r="E14">
-        <v>273000000</v>
+        <v>272911000</v>
       </c>
       <c r="F14">
-        <v>219000000</v>
+        <v>219294000</v>
       </c>
       <c r="G14">
         <v>210811000</v>
@@ -2098,8 +2209,8 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B15">
         <v>386812000</v>
@@ -2220,23 +2331,23 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
-        <v>154000000</v>
+        <v>153639000</v>
       </c>
       <c r="C16">
-        <v>107000000</v>
+        <v>106574000</v>
       </c>
       <c r="D16">
-        <v>105000000</v>
+        <v>105262000</v>
       </c>
       <c r="E16">
-        <v>132000000</v>
+        <v>101134000</v>
       </c>
       <c r="F16">
-        <v>54000000</v>
+        <v>53524000</v>
       </c>
       <c r="G16">
         <v>53025000</v>
@@ -2342,8 +2453,8 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
         <v>199626000</v>
@@ -2464,8 +2575,8 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
         <v>198179000</v>
@@ -2586,8 +2697,8 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="Z19">
         <v>22920000</v>
@@ -2633,8 +2744,8 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
         <v>585000000</v>
@@ -2674,23 +2785,23 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
-        <v>1165000000</v>
+        <v>1164937000</v>
       </c>
       <c r="C21">
-        <v>1119000000</v>
+        <v>1118581000</v>
       </c>
       <c r="D21">
-        <v>1087000000</v>
+        <v>1087413000</v>
       </c>
       <c r="E21">
-        <v>1147000000</v>
+        <v>1146538000</v>
       </c>
       <c r="F21">
-        <v>1002000000</v>
+        <v>1001561000</v>
       </c>
       <c r="G21">
         <v>938369000</v>
@@ -2796,23 +2907,23 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
-        <v>1825000000</v>
+        <v>1825253000</v>
       </c>
       <c r="C22">
-        <v>1821000000</v>
+        <v>1821458000</v>
       </c>
       <c r="D22">
-        <v>1767000000</v>
+        <v>1766832000</v>
       </c>
       <c r="E22">
-        <v>1669000000</v>
+        <v>1580808000</v>
       </c>
       <c r="F22">
-        <v>1640000000</v>
+        <v>1639583000</v>
       </c>
       <c r="G22">
         <v>1602005000</v>
@@ -2918,23 +3029,23 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
-        <v>42000000</v>
+        <v>76532000</v>
       </c>
       <c r="C23">
-        <v>32000000</v>
+        <v>68578000</v>
       </c>
       <c r="D23">
-        <v>26000000</v>
+        <v>65174000</v>
       </c>
       <c r="E23">
-        <v>23000000</v>
+        <v>62230000</v>
       </c>
       <c r="F23">
-        <v>3000000</v>
+        <v>42656000</v>
       </c>
       <c r="G23">
         <v>35587000</v>
@@ -3040,23 +3151,23 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
-        <v>311000000</v>
+        <v>310547000</v>
       </c>
       <c r="C24">
-        <v>321000000</v>
+        <v>320551000</v>
       </c>
       <c r="D24">
-        <v>352000000</v>
+        <v>352194000</v>
       </c>
       <c r="E24">
-        <v>278000000</v>
+        <v>365801000</v>
       </c>
       <c r="F24">
-        <v>364000000</v>
+        <v>364190000</v>
       </c>
       <c r="G24">
         <v>375519000</v>
@@ -3162,8 +3273,8 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
         <v>2212332000</v>
@@ -3284,23 +3395,23 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
-        <v>3377000000</v>
+        <v>3377269000</v>
       </c>
       <c r="C26">
-        <v>3329000000</v>
+        <v>3329168000</v>
       </c>
       <c r="D26">
-        <v>3272000000</v>
+        <v>3271613000</v>
       </c>
       <c r="E26">
-        <v>3155000000</v>
+        <v>3155377000</v>
       </c>
       <c r="F26">
-        <v>3048000000</v>
+        <v>3047990000</v>
       </c>
       <c r="G26">
         <v>2951480000</v>
@@ -3406,8 +3517,8 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
         <v>842421000</v>
@@ -3528,23 +3639,23 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>448000</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>448000</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>448000</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>448000</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>448000</v>
       </c>
       <c r="G28">
         <v>448000</v>
@@ -3650,23 +3761,23 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
-        <v>6463000000</v>
+        <v>6463349000</v>
       </c>
       <c r="C29">
-        <v>6243000000</v>
+        <v>6242943000</v>
       </c>
       <c r="D29">
-        <v>6031000000</v>
+        <v>6030873000</v>
       </c>
       <c r="E29">
-        <v>5859000000</v>
+        <v>5859272000</v>
       </c>
       <c r="F29">
-        <v>5632000000</v>
+        <v>5631965000</v>
       </c>
       <c r="G29">
         <v>5429085000</v>
@@ -3772,8 +3883,8 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
         <v>7064513000</v>
@@ -3894,23 +4005,23 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
-        <v>-83000000</v>
+        <v>-82808900</v>
       </c>
       <c r="C31">
-        <v>7000000</v>
+        <v>7262000</v>
       </c>
       <c r="D31">
-        <v>85000000</v>
+        <v>84570300</v>
       </c>
       <c r="E31">
-        <v>171000000</v>
+        <v>171421000</v>
       </c>
       <c r="F31">
-        <v>159000000</v>
+        <v>159170500</v>
       </c>
       <c r="G31">
         <v>191424100</v>
@@ -4016,23 +4127,23 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B32">
-        <v>-83000000</v>
+        <v>-82809000</v>
       </c>
       <c r="C32">
-        <v>7000000</v>
+        <v>7262000</v>
       </c>
       <c r="D32">
-        <v>85000000</v>
+        <v>84570000</v>
       </c>
       <c r="E32">
-        <v>171000000</v>
+        <v>171421000</v>
       </c>
       <c r="F32">
-        <v>159000000</v>
+        <v>159171000</v>
       </c>
       <c r="G32">
         <v>191424000</v>
@@ -4138,8 +4249,8 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B33">
         <v>3294460000</v>
@@ -4260,8 +4371,8 @@
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B34">
         <v>22294000</v>
@@ -4382,8 +4493,8 @@
       </c>
     </row>
     <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B35">
         <v>-1016333000</v>
@@ -4504,23 +4615,23 @@
       </c>
     </row>
     <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
+      <c r="A36" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B36">
-        <v>1857000000</v>
+        <v>1856756000</v>
       </c>
       <c r="C36">
-        <v>1819000000</v>
+        <v>1818583000</v>
       </c>
       <c r="D36">
-        <v>1755000000</v>
+        <v>1755145000</v>
       </c>
       <c r="E36">
-        <v>1702000000</v>
+        <v>1583378000</v>
       </c>
       <c r="F36">
-        <v>1510000000</v>
+        <v>1509435000</v>
       </c>
       <c r="G36">
         <v>1512778000</v>
@@ -4626,23 +4737,23 @@
       </c>
     </row>
     <row r="37" spans="1:40">
-      <c r="A37" t="s">
-        <v>36</v>
+      <c r="A37" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B37">
-        <v>1979000000</v>
+        <v>1978892000</v>
       </c>
       <c r="C37">
-        <v>1928000000</v>
+        <v>1928032000</v>
       </c>
       <c r="D37">
-        <v>1872000000</v>
+        <v>1872094000</v>
       </c>
       <c r="E37">
-        <v>1801000000</v>
+        <v>1681942000</v>
       </c>
       <c r="F37">
-        <v>1694000000</v>
+        <v>1693107000</v>
       </c>
       <c r="G37">
         <v>1655030000</v>
